--- a/Resources/LocatorFiles/baidu.xlsx
+++ b/Resources/LocatorFiles/baidu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27304"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProject\ExcelExcuteTestFromework\Resources\LocatorFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BFD978-F8FF-47B8-BC8F-789F3BA4AA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF3AA3A-E663-4723-9F6A-37ED014965A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16596" yWindow="924" windowWidth="14160" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="6156" windowWidth="16596" windowHeight="12912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>//*[@id='lg']/map/area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//td[text()="%s"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -491,6 +499,17 @@
       </c>
       <c r="D4" s="1"/>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
